--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -411,7 +411,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.612607342376851</v>
+        <v>0.612607348826151</v>
       </c>
       <c r="C2" t="n">
         <v>0.721303753618065</v>
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.355027962980675</v>
+        <v>0.355027957335685</v>
       </c>
       <c r="C3" t="n">
         <v>0.48731534964121</v>
@@ -457,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.446393656517249</v>
+        <v>0.446393661326311</v>
       </c>
       <c r="C4" t="n">
         <v>0.512467089810892</v>
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.363253935259988</v>
+        <v>0.363253941831613</v>
       </c>
       <c r="C5" t="n">
         <v>0.375337860328498</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.684337115916117</v>
+        <v>0.684337117444274</v>
       </c>
       <c r="C6" t="n">
         <v>0.774340457244579</v>
